--- a/mapping_schemes/east/SOM_IND.xlsx
+++ b/mapping_schemes/east/SOM_IND.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="3">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5">
@@ -1151,16 +1151,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MUR+CB/LWAL</t>
+          <t>CR/LFINF</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MUR+STRUB/LWAL</t>
+          <t>MUR+CB/LWAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.2857142857142858</v>
       </c>
     </row>
     <row r="7">
@@ -1196,31 +1196,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MUR+CL/LWAL</t>
+          <t>MUR+STRUB/LWAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Industry steel</t>
+          <t>Block/Stone/Brick</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>S/LFM</t>
+          <t>MUR+CL/LWAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.2857142857142858</v>
       </c>
     </row>
     <row r="9">
@@ -1236,11 +1236,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S+SL/LFM</t>
+          <t>S/LFM</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S/LFM</t>
+          <t>S+SL/LFM</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1276,10 +1276,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>S/LFM</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Industry steel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>S+SL/LFM</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>0.8</v>
       </c>
     </row>

--- a/mapping_schemes/east/SOM_IND.xlsx
+++ b/mapping_schemes/east/SOM_IND.xlsx
@@ -2188,14 +2188,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mining and quarrying</t>
+          <t>All other industry</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D2" t="n">
-        <v>436</v>
+        <v>253.7179153094463</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2212,14 +2212,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport; storage and communication</t>
+          <t>Warehouses and storage</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D3" t="n">
-        <v>337</v>
+        <v>196.107654723127</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -2236,14 +2236,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Manufacturing and light industry</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="D4" t="n">
-        <v>405</v>
+        <v>235.678338762215</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -2260,14 +2260,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mining and quarrying</t>
+          <t>All other industry</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D5" t="n">
-        <v>436</v>
+        <v>253.7179153094463</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -2284,14 +2284,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transport; storage and communication</t>
+          <t>Warehouses and storage</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D6" t="n">
-        <v>337</v>
+        <v>196.107654723127</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -2308,14 +2308,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Manufacturing and light industry</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="D7" t="n">
-        <v>405</v>
+        <v>235.678338762215</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
